--- a/Files/Template_Files/test.xlsx
+++ b/Files/Template_Files/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A430EE-49B7-460D-AAF0-106FA8E5D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFFFD87-DE5A-4461-824C-4EE3F8EEE70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
+    <workbookView xWindow="-28920" yWindow="13965" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +33,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +69,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +104,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,13 +431,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBAB986-D23C-46DC-B7EC-DCB15166F4A0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917870-4690-4F49-BB29-94A3C7BF3930}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.3125" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" customWidth="1"/>
+    <col min="4" max="4" width="10.05078125" customWidth="1"/>
+    <col min="5" max="5" width="15.05078125" customWidth="1"/>
+    <col min="6" max="6" width="18.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>